--- a/AAII_Financials/Yearly/CRBG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRBG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>CRBG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,143 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>25654000</v>
+      </c>
+      <c r="E8" s="3">
         <v>22215000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13990000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12141000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14539000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9665000</v>
+      </c>
+      <c r="E9" s="3">
         <v>10109000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8065000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6009000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4903000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>15989000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12106000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5925000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6132000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9636000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,8 +813,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,36 +870,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>219000</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="3">
+        <v>-2862000</v>
+      </c>
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>32000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,9 +930,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,62 +944,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14660000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11699000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12649000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11447000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14438000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10994000</v>
+      </c>
+      <c r="E18" s="3">
         <v>10516000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1341000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>694000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>101000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,8 +1018,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1003,8 +1036,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1012,117 +1045,132 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12015000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11078000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1666000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>988000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>193000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E22" s="3">
         <v>389000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>490000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>555000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>267000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10460000</v>
+      </c>
+      <c r="E23" s="3">
         <v>10127000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>851000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>139000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-166000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1991000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1843000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-15000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-168000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-132000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,63 +1195,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8469000</v>
+      </c>
+      <c r="E26" s="3">
         <v>8284000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>866000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>307000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8149000</v>
+      </c>
+      <c r="E27" s="3">
         <v>7355000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>642000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>50000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-80000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,9 +1285,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,9 +1315,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,9 +1375,12 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1327,8 +1396,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1336,36 +1405,42 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8149000</v>
+      </c>
+      <c r="E33" s="3">
         <v>7355000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>642000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>50000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-80000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,68 +1465,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8149000</v>
+      </c>
+      <c r="E35" s="3">
         <v>7355000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>642000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>50000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-80000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,23 +1561,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>552000</v>
+      </c>
+      <c r="E41" s="3">
         <v>537000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>654000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>596000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,9 +1588,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,9 +1618,12 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1556,9 +1648,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1583,9 +1678,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1610,9 +1708,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1637,24 +1738,27 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>220912000</v>
+      </c>
+      <c r="E47" s="3">
         <v>256318000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>260274000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>238888000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1664,21 +1768,24 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E48" s="3">
         <v>51000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>63000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1691,9 +1798,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1718,9 +1828,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,24 +1888,27 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8843000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4837000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3640000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3499000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,9 +1918,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,24 +1948,27 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>360322000</v>
+      </c>
+      <c r="E54" s="3">
         <v>416212000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>410155000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>382476000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1853,9 +1978,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,8 +2009,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1906,20 +2036,23 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8317000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1933,24 +2066,27 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>243832000</v>
+      </c>
+      <c r="E59" s="3">
         <v>268872000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>257755000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>243341000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,9 +2096,12 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1987,24 +2126,27 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13826000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7363000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11246000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11078000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2014,9 +2156,12 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2041,9 +2186,12 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,24 +2276,27 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>350942000</v>
+      </c>
+      <c r="E66" s="3">
         <v>389126000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>372923000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>350671000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2149,9 +2306,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,24 +2440,27 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18207000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8859000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22573000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22476000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,9 +2470,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,24 +2560,27 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9380000</v>
+      </c>
+      <c r="E76" s="3">
         <v>27086000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37232000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31805000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2405,9 +2590,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,68 +2620,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8149000</v>
+      </c>
+      <c r="E81" s="3">
         <v>7355000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>642000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>50000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-80000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2702,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1021000</v>
+      </c>
+      <c r="E83" s="3">
         <v>562000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>325000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>294000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>92000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2879,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2695000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2461000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3327000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2445000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3208000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,8 +2926,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2733,9 +2953,12 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3013,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7253000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1967000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7909000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10375000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4764000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,13 +3060,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-876000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2854,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,53 +3177,59 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4600000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-809000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4666000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7919000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1539000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -2989,34 +3237,40 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-317000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>91000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
